--- a/qa.xlsx
+++ b/qa.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dana Arad\Documents\comp2\web_data_mng\2022\hw2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Desktop\Liron\Studies\WDM\WDM_Information_Extraction_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EF8C66-E83E-4F75-BB82-D9EAE0A00833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FE40923E-B6CD-43DC-ADCD-0AFB58BED0FB}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -244,12 +243,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -265,12 +264,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -285,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -296,6 +313,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,180 +637,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5DB2EA-CAFF-4333-A57B-FF15E41828F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.26953125" customWidth="1"/>
-    <col min="2" max="2" width="45.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="50.25" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -792,7 +818,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -800,7 +826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -808,7 +834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -816,7 +842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -824,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -832,7 +858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -840,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -848,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -856,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -864,7 +890,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -872,7 +898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -880,7 +906,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -888,7 +914,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
@@ -896,7 +922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -904,7 +930,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -912,7 +938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -920,16 +946,16 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
     </row>
   </sheetData>

--- a/qa.xlsx
+++ b/qa.xlsx
@@ -641,7 +641,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -883,7 +883,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -891,7 +891,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B31" s="1" t="s">

--- a/qa.xlsx
+++ b/qa.xlsx
@@ -641,7 +641,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A37" activeCellId="1" sqref="A36 A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -923,7 +923,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -931,7 +931,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -939,7 +939,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="1" t="s">

--- a/qa.xlsx
+++ b/qa.xlsx
@@ -641,7 +641,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" activeCellId="1" sqref="A36 A37"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/qa.xlsx
+++ b/qa.xlsx
@@ -641,7 +641,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/qa.xlsx
+++ b/qa.xlsx
@@ -19,22 +19,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Who is the president of China?</t>
   </si>
@@ -238,6 +228,9 @@
   </si>
   <si>
     <t>President of Marshall Islands</t>
+  </si>
+  <si>
+    <t>Parliamentary, Semi-constitutional monarchy, Unitary state</t>
   </si>
 </sst>
 </file>
@@ -264,7 +257,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,12 +273,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +308,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -755,11 +742,11 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
+      <c r="B14" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">

--- a/qa.xlsx
+++ b/qa.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/qa.xlsx
+++ b/qa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Who is the president of China?</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>Parliamentary, Semi-constitutional monarchy, Unitary state</t>
+  </si>
+  <si>
+    <t>we got 5, there are 5 in wikipedia</t>
+  </si>
+  <si>
+    <t>we also got syria which is semi</t>
+  </si>
+  <si>
+    <t>NK and turkmenistan are both Hereditary_dictatorship and dictatorian</t>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +285,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -289,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -309,6 +324,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,16 +643,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.25" customWidth="1"/>
     <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="57.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -765,7 +784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -773,7 +792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -781,7 +800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -789,7 +808,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
@@ -797,63 +816,72 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -861,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -869,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>52</v>
       </c>
@@ -877,7 +905,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>57</v>
       </c>
@@ -885,7 +913,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
